--- a/Models/Model_5_max_perm/ModelData.xlsx
+++ b/Models/Model_5_max_perm/ModelData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="714" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="714" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Dir" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="108">
   <si>
     <t>ROCK</t>
   </si>
@@ -274,19 +274,7 @@
     <t>co2_prod1</t>
   </si>
   <si>
-    <t>monitor_inj1</t>
-  </si>
-  <si>
-    <t>monitor_prod1</t>
-  </si>
-  <si>
     <t>co2_prod2</t>
-  </si>
-  <si>
-    <t>monitor_prod2</t>
-  </si>
-  <si>
-    <t>monitor_prod3</t>
   </si>
   <si>
     <t>co2_prod3</t>
@@ -735,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -743,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -770,10 +758,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,7 +776,7 @@
     <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>70</v>
       </c>
@@ -826,10 +814,10 @@
         <v>78</v>
       </c>
       <c r="M1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -852,7 +840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -875,7 +863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>71</v>
       </c>
@@ -895,7 +883,7 @@
       </c>
       <c r="H4" s="4">
         <f>-L4*1000000000/(365.25*24*3600)</f>
-        <v>-22.724985960000001</v>
+        <v>-25.107736890000002</v>
       </c>
       <c r="I4" s="3">
         <v>-30</v>
@@ -908,13 +896,13 @@
       </c>
       <c r="L4" s="4">
         <f>SUM(L5:L7)</f>
-        <v>0.71714601693129598</v>
+        <v>0.792339917679864</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>79</v>
       </c>
@@ -934,7 +922,7 @@
       </c>
       <c r="H5" s="4">
         <f>L5*1000000000/(365.25*24*3600)</f>
-        <v>8.3731007200000001</v>
+        <v>9.0271486000000003</v>
       </c>
       <c r="I5" s="3">
         <v>0</v>
@@ -947,21 +935,18 @@
       </c>
       <c r="L5" s="4">
         <f>O5/1000000000*(365.25*24*3600)</f>
-        <v>0.264234963281472</v>
+        <v>0.28487514465935998</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>8.3731007200000001</v>
-      </c>
-      <c r="P5">
-        <v>6.5935869900000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>9.0271486000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B6">
         <v>32</v>
@@ -979,7 +964,7 @@
       </c>
       <c r="H6" s="4">
         <f>L6*1000000000/(365.25*24*3600)</f>
-        <v>8.4276566400000004</v>
+        <v>9.0551068999999984</v>
       </c>
       <c r="I6" s="3">
         <v>0</v>
@@ -992,21 +977,18 @@
       </c>
       <c r="L6" s="4">
         <f t="shared" ref="L6:L7" si="0">O6/1000000000*(365.25*24*3600)</f>
-        <v>0.26595661718246399</v>
+        <v>0.28575744150743998</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>8.4276566400000004</v>
-      </c>
-      <c r="P6">
-        <v>6.5314241199999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>9.0551069000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B7">
         <v>33</v>
@@ -1024,7 +1006,7 @@
       </c>
       <c r="H7" s="4">
         <f>L7*1000000000/(365.25*24*3600)</f>
-        <v>5.9242285999999993</v>
+        <v>7.0254813900000022</v>
       </c>
       <c r="I7" s="3">
         <v>0</v>
@@ -1037,34 +1019,31 @@
       </c>
       <c r="L7" s="4">
         <f t="shared" si="0"/>
-        <v>0.18695443646735999</v>
+        <v>0.22170733151306404</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>5.9242286000000002</v>
-      </c>
-      <c r="P7">
-        <v>6.6557796099999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <v>7.0254813900000013</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -1127,7 +1106,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B2">
         <v>30</v>
@@ -1216,7 +1195,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B2">
         <v>30</v>
@@ -1234,7 +1213,7 @@
       </c>
       <c r="H2">
         <f>CO2_S2_BC!H4</f>
-        <v>-22.724985960000001</v>
+        <v>-25.107736890000002</v>
       </c>
       <c r="I2">
         <f>CO2_S2_BC!I4</f>
@@ -1245,12 +1224,12 @@
       </c>
       <c r="L2" s="4">
         <f>CO2_S2_BC!L4</f>
-        <v>0.71714601693129598</v>
+        <v>0.792339917679864</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B3">
         <v>31</v>
@@ -1268,7 +1247,7 @@
       </c>
       <c r="H3">
         <f>CO2_S2_BC!H5</f>
-        <v>8.3731007200000001</v>
+        <v>9.0271486000000003</v>
       </c>
       <c r="I3">
         <f>CO2_S2_BC!I5</f>
@@ -1279,12 +1258,12 @@
       </c>
       <c r="L3" s="4">
         <f>CO2_S2_BC!L5</f>
-        <v>0.264234963281472</v>
+        <v>0.28487514465935998</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B4">
         <v>32</v>
@@ -1302,7 +1281,7 @@
       </c>
       <c r="H4">
         <f>CO2_S2_BC!H6</f>
-        <v>8.4276566400000004</v>
+        <v>9.0551068999999984</v>
       </c>
       <c r="I4">
         <f>CO2_S2_BC!I6</f>
@@ -1313,12 +1292,12 @@
       </c>
       <c r="L4" s="4">
         <f>CO2_S2_BC!L6</f>
-        <v>0.26595661718246399</v>
+        <v>0.28575744150743998</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B5">
         <v>33</v>
@@ -1336,7 +1315,7 @@
       </c>
       <c r="H5">
         <f>CO2_S2_BC!H7</f>
-        <v>5.9242285999999993</v>
+        <v>7.0254813900000022</v>
       </c>
       <c r="I5">
         <f>CO2_S2_BC!I7</f>
@@ -1347,7 +1326,7 @@
       </c>
       <c r="L5" s="4">
         <f>CO2_S2_BC!L7</f>
-        <v>0.18695443646735999</v>
+        <v>0.22170733151306404</v>
       </c>
     </row>
   </sheetData>
@@ -1372,21 +1351,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -1400,7 +1379,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1414,7 +1393,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -1451,15 +1430,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B3" s="6">
         <v>0.5</v>
@@ -1467,7 +1446,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B4">
         <v>20</v>
@@ -1760,7 +1739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
@@ -1799,16 +1778,16 @@
         <v>13</v>
       </c>
       <c r="I1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="J1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -2796,7 +2775,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2856,7 +2835,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B7">
         <f>B4</f>
@@ -2865,7 +2844,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B8">
         <v>100</v>
@@ -2949,7 +2928,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B8">
         <f>B5</f>
@@ -2958,7 +2937,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -3043,7 +3022,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B8">
         <f>B5</f>
@@ -3052,7 +3031,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -3067,8 +3046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3078,7 +3057,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s">
         <v>15</v>
@@ -3098,13 +3077,13 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
         <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F2" s="3">
         <v>750</v>
@@ -3124,13 +3103,13 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
         <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F3" s="3">
         <v>750</v>
@@ -3151,13 +3130,13 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
         <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F4" s="3">
         <v>750</v>
@@ -3177,13 +3156,13 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
         <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F5" s="3">
         <v>750</v>
@@ -3263,7 +3242,7 @@
         <v>78</v>
       </c>
       <c r="M1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">

--- a/Models/Model_5_max_perm/ModelData.xlsx
+++ b/Models/Model_5_max_perm/ModelData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="714" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="714" firstSheet="6" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Dir" sheetId="5" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Water_S2_BC" sheetId="13" r:id="rId12"/>
     <sheet name="Optimize" sheetId="14" r:id="rId13"/>
     <sheet name="Options" sheetId="15" r:id="rId14"/>
+    <sheet name="Well_Params" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="114">
   <si>
     <t>ROCK</t>
   </si>
@@ -356,6 +357,24 @@
   </si>
   <si>
     <t>mult</t>
+  </si>
+  <si>
+    <t>min_elev</t>
+  </si>
+  <si>
+    <t>max_elev</t>
+  </si>
+  <si>
+    <t>dz</t>
+  </si>
+  <si>
+    <t>well_diameter</t>
+  </si>
+  <si>
+    <t>roughness</t>
+  </si>
+  <si>
+    <t>inj_temp</t>
   </si>
 </sst>
 </file>
@@ -1457,6 +1476,77 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5.5000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
@@ -3046,7 +3136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
